--- a/5_CodeInspection/Code_checks_Soheil.xlsx
+++ b/5_CodeInspection/Code_checks_Soheil.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16646" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16670" uniqueCount="127">
   <si>
     <t>2.1 Naming Conventions</t>
   </si>
@@ -398,6 +398,15 @@
   <si>
     <t>ok</t>
   </si>
+  <si>
+    <t>Lines 67, 68,70, 71, 73, 77, 181,187,256,260,263,: limit of 120 exceeded.</t>
+  </si>
+  <si>
+    <t>71-90,177,179-182,188,189,212,213,214,234,238,253,318,321,336,344,347</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,12 +466,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -476,14 +479,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1467,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD220"/>
+  <dimension ref="A1:XFD221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,6 +1540,11 @@
         <v>109</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>110</v>
@@ -1624,7 +1631,9 @@
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -1632,8 +1641,8 @@
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>27</v>
+      <c r="A50" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
@@ -1657,8 +1666,8 @@
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>31</v>
+      <c r="A57" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -1692,7 +1701,7 @@
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1726,9 +1735,19 @@
         <v>39</v>
       </c>
     </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -1856,6 +1875,11 @@
         <v>63</v>
       </c>
     </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>64</v>
@@ -1931,9 +1955,19 @@
         <v>73</v>
       </c>
     </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
@@ -1941,6 +1975,11 @@
         <v>76</v>
       </c>
     </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>77</v>
@@ -1986,6 +2025,11 @@
         <v>82</v>
       </c>
     </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>83</v>
@@ -1996,6 +2040,11 @@
         <v>84</v>
       </c>
     </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="161" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>85</v>
@@ -51185,6 +51234,11 @@
         <v>113</v>
       </c>
     </row>
+    <row r="170" spans="1:16384" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="172" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>88</v>
@@ -51220,9 +51274,19 @@
         <v>91</v>
       </c>
     </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
@@ -51230,9 +51294,19 @@
         <v>93</v>
       </c>
     </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -51245,9 +51319,19 @@
         <v>96</v>
       </c>
     </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
@@ -51260,9 +51344,19 @@
         <v>99</v>
       </c>
     </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -51270,6 +51364,11 @@
         <v>101</v>
       </c>
     </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>102</v>
@@ -51280,9 +51379,19 @@
         <v>103</v>
       </c>
     </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
@@ -51290,9 +51399,19 @@
         <v>105</v>
       </c>
     </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/5_CodeInspection/Code_checks_Soheil.xlsx
+++ b/5_CodeInspection/Code_checks_Soheil.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soheil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Documents\2016_SE2_project\SE2project\5_CodeInspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +466,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -479,16 +485,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1471,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1568,7 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1621,7 +1628,7 @@
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="6" t="s">
         <v>121</v>
       </c>
     </row>
